--- a/商城接口测试用例.xlsx
+++ b/商城接口测试用例.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.skuList接口" sheetId="1" r:id="rId1"/>
     <sheet name="2.登录接口" sheetId="2" r:id="rId2"/>
     <sheet name="3.添加收货地址接口" sheetId="3" r:id="rId3"/>
-    <sheet name="4.面向场景的接口测试用例" sheetId="4" r:id="rId4"/>
-    <sheet name="5.删除地址的用例" sheetId="5" r:id="rId5"/>
+    <sheet name="4.删除地址的用例" sheetId="5" r:id="rId4"/>
+    <sheet name="5.面向场景的接口测试用例" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -419,7 +419,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -701,7 +701,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,7 +906,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1415,9 +1415,201 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1632,196 +1824,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="28.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>